--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatD.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatD.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -176,12 +181,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,6 +257,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -296,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,22 +584,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -582,7 +627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -596,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -617,23 +662,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -656,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -673,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -690,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -707,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -724,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -741,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -758,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -775,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -792,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -809,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -826,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -843,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -860,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -877,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -894,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -918,26 +963,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -978,7 +1023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1013,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
@@ -1048,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -1083,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
@@ -1118,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
@@ -1188,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -1223,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1258,7 +1303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -1293,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1328,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -1363,7 +1408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -1398,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -1433,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1468,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
@@ -1510,27 +1555,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.5703125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1597,7 +1642,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>50</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatD.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -162,9 +162,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -183,13 +180,14 @@
     <t>Weekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -662,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -963,11 +961,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
@@ -1040,25 +1038,25 @@
         <v>44</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>14</v>
@@ -1075,25 +1073,25 @@
         <v>44</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
@@ -1110,25 +1108,25 @@
         <v>44</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
@@ -1145,25 +1143,25 @@
         <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -1180,25 +1178,25 @@
         <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
@@ -1206,7 +1204,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
@@ -1215,25 +1213,25 @@
         <v>44</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
@@ -1250,25 +1248,25 @@
         <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1276,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
@@ -1285,25 +1283,25 @@
         <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
@@ -1320,25 +1318,25 @@
         <v>44</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K10" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>14</v>
@@ -1355,25 +1353,25 @@
         <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -1381,7 +1379,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>14</v>
@@ -1390,25 +1388,25 @@
         <v>44</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K12" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -1416,7 +1414,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
@@ -1425,25 +1423,25 @@
         <v>44</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -1460,25 +1458,25 @@
         <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K14" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1486,7 +1484,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>14</v>
@@ -1495,25 +1493,25 @@
         <v>44</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
@@ -1521,7 +1519,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>14</v>
@@ -1530,19 +1528,19 @@
         <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>5</v>
@@ -1555,10 +1553,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1605,7 @@
         <v>42</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>2</v>
@@ -1627,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
@@ -1636,22 +1634,22 @@
         <v>44</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>5</v>
